--- a/biology/Botanique/Reinwardtia_(Theaceae)/Reinwardtia_(Theaceae).xlsx
+++ b/biology/Botanique/Reinwardtia_(Theaceae)/Reinwardtia_(Theaceae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ternstroemia est un genre de plantes à fleurs de la famille des Pentaphylacaceae (anciennement des Ternstroemiaceae ou des Theaceae), comprenant 88 à 204 espèces, et dont l'espèce type est Ternstroemia meridionalis Mutis ex L. f..
 Il doit son nom au botaniste suédois Christopher Tärnström (1703-1746).
@@ -512,7 +524,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ternstroemia dentata (Aubl.) Sw., 1788 
@@ -547,12 +561,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (14 mars 2022)[4] :
-Selon World Flora Online (WFO)       (14 mars 2022)[5] :
-Selon Tropicos                                           (14 mars 2022)[2] :
-Selon NCBI  (12 nov. 2015)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (14 mars 2022) :
+Selon World Flora Online (WFO)       (14 mars 2022) :
+Selon Tropicos                                           (14 mars 2022) :
+Selon NCBI  (12 nov. 2015) :
 Ternstroemia brasiliensis
 Ternstroemia cherryi
 Ternstroemia dentata
@@ -569,7 +585,7 @@
 Ternstroemia stahlii
 Ternstroemia standleyana
 Ternstroemia wallichiana
-Selon ITIS      (12 nov. 2015)[7] :
+Selon ITIS      (12 nov. 2015) :
 Ternstroemia heptasepala Krug &amp; Urban
 Ternstroemia heptasepela Krug &amp; Urban
 Ternstroemia luquillensis Krug &amp; Urban
